--- a/config/samples/sample_metadata.xlsx
+++ b/config/samples/sample_metadata.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-105" windowWidth="21600" windowHeight="9705"/>
+    <workbookView xWindow="0" yWindow="-105" windowWidth="21600" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="65">
   <si>
     <t>Organism</t>
   </si>
@@ -120,13 +120,115 @@
   </si>
   <si>
     <t>F241</t>
+  </si>
+  <si>
+    <t>SES_T1</t>
+  </si>
+  <si>
+    <t>HBI_T1</t>
+  </si>
+  <si>
+    <t>fCalpro_T1</t>
+  </si>
+  <si>
+    <t>CRP_T1</t>
+  </si>
+  <si>
+    <t>Sampling_date</t>
+  </si>
+  <si>
+    <t>SES_T2</t>
+  </si>
+  <si>
+    <t>HBI_T2</t>
+  </si>
+  <si>
+    <t>fCalpro_T2</t>
+  </si>
+  <si>
+    <t>CRP_T2</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>VDZ_concentration_T2</t>
+  </si>
+  <si>
+    <t>Response_230421</t>
+  </si>
+  <si>
+    <t>PBMC_flowcytometry</t>
+  </si>
+  <si>
+    <t>Coulter_counter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +236,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,8 +269,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,25 +578,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -478,68 +631,147 @@
         <v>28</v>
       </c>
       <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s">
         <v>17</v>
       </c>
+      <c r="Y1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2">
+        <v>43663</v>
+      </c>
+      <c r="N2" s="7">
+        <f>10.8*10000000</f>
+        <v>108000000</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>2794</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>652</v>
+      </c>
+      <c r="V2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2">
         <v>26</v>
       </c>
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -554,68 +786,145 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
-        <v>26</v>
+      <c r="M3" s="4">
+        <v>43753</v>
+      </c>
+      <c r="N3" s="8">
+        <f>25*10000000</f>
+        <v>250000000</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>8</v>
+      </c>
+      <c r="Q3">
+        <v>249</v>
+      </c>
+      <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>174</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3">
+        <v>29</v>
+      </c>
+      <c r="X3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="I4">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="1">
+        <v>43746</v>
+      </c>
+      <c r="N4" s="9">
+        <f>7.2*10000000</f>
+        <v>72000000</v>
+      </c>
+      <c r="O4">
+        <v>9</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1937</v>
+      </c>
+      <c r="R4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>768</v>
+      </c>
+      <c r="V4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4">
+        <v>2.7</v>
+      </c>
+      <c r="X4" t="s">
         <v>27</v>
       </c>
+      <c r="Y4" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -630,27 +939,64 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="I5">
+      <c r="J5">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="6">
+        <v>43756</v>
+      </c>
+      <c r="N5" s="10">
+        <f>25*10000000</f>
+        <v>250000000</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5">
+        <v>8</v>
+      </c>
+      <c r="U5">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="V5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5">
+        <v>26</v>
+      </c>
+      <c r="X5" t="s">
         <v>27</v>
       </c>
+      <c r="Y5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -665,30 +1011,64 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
         <v>21</v>
       </c>
-      <c r="I6">
-        <v>71</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="2">
+        <v>43719</v>
+      </c>
+      <c r="N6" s="7">
+        <f>33.72*10000000</f>
+        <v>337200000</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>393</v>
+      </c>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6">
+        <v>35</v>
+      </c>
+      <c r="X6" t="s">
         <v>27</v>
       </c>
+      <c r="Y6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -703,30 +1083,67 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="I7">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
+      <c r="J7">
+        <v>38</v>
       </c>
       <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" s="6">
+        <v>43714</v>
+      </c>
+      <c r="N7" s="10">
+        <f>25.25*10000000</f>
+        <v>252500000</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>276</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="V7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7">
+        <v>8</v>
+      </c>
+      <c r="X7" t="s">
         <v>27</v>
       </c>
+      <c r="Y7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -735,36 +1152,73 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8">
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="3">
+        <v>44333</v>
+      </c>
+      <c r="N8" s="11">
+        <f>8.89*10000000</f>
+        <v>88900000</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>22</v>
+      </c>
+      <c r="Q8">
+        <v>111</v>
+      </c>
+      <c r="R8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8">
+        <v>16</v>
+      </c>
+      <c r="X8" t="s">
         <v>26</v>
       </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="Y8" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -773,109 +1227,229 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
       </c>
       <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" s="6">
+        <v>44306</v>
+      </c>
+      <c r="N9" s="10">
+        <f>4.959*10000000</f>
+        <v>49590000</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <v>2184</v>
+      </c>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>545</v>
+      </c>
+      <c r="V9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9">
+        <v>41</v>
+      </c>
+      <c r="X9" t="s">
         <v>26</v>
       </c>
+      <c r="Y9" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10">
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="1">
+        <v>43691</v>
+      </c>
+      <c r="N10" s="9">
+        <f>18*10000000</f>
+        <v>180000000</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>187</v>
+      </c>
+      <c r="R10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>24</v>
+      </c>
+      <c r="V10" t="s">
+        <v>55</v>
+      </c>
+      <c r="W10">
+        <v>14</v>
+      </c>
+      <c r="X10" t="s">
         <v>26</v>
       </c>
+      <c r="Y10" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
       </c>
       <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="I11">
-        <v>59</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
         <v>25</v>
       </c>
-      <c r="L11" t="s">
-        <v>27</v>
+      <c r="M11" s="1">
+        <v>43762</v>
+      </c>
+      <c r="N11" s="9">
+        <f>30.9*10000000</f>
+        <v>309000000</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>470</v>
+      </c>
+      <c r="R11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>84</v>
+      </c>
+      <c r="V11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -884,26 +1458,70 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12">
-        <v>77</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" t="s">
-        <v>27</v>
+      <c r="M12" s="2">
+        <v>43671</v>
+      </c>
+      <c r="N12" s="7">
+        <f>15*10000000</f>
+        <v>150000000</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>706</v>
+      </c>
+      <c r="R12" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>186</v>
+      </c>
+      <c r="V12" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12">
+        <v>39</v>
+      </c>
+      <c r="X12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:Y12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>